--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14070" windowWidth="24135"/>
   </bookViews>
   <sheets>
-    <sheet name="flow_info-76" sheetId="1" r:id="rId1"/>
-    <sheet name="flow_info-57" sheetId="2" r:id="rId2"/>
-    <sheet name="flow_info" sheetId="3" r:id="rId3"/>
+    <sheet name="flow_info-76" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="flow_info-57" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="flow_info" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
   <si>
     <t>id</t>
   </si>
@@ -1191,6 +1191,19 @@
     <t>d762deac-700b-459f-b110-1d0f2fe8d97a</t>
   </si>
   <si>
+    <t>672d6484-a277-459a-a878-4a5e16fd6a16</t>
+  </si>
+  <si>
+    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: source_自动化基础测试_HDFS_csv ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1570914203143_2589</t>
+  </si>
+  <si>
     <t>45c63cfd-2475-461a-a703-f98f9e54b607</t>
   </si>
   <si>
@@ -1203,21 +1216,38 @@
     <t>424c9f27-00b4-4176-af2f-a2dfe26afe61</t>
   </si>
   <si>
+    <t>a449a919-b888-4024-80f9-0177ab7334db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: source_自动化基础测试_JDBC_mysql ---&gt;执行状态为 FAILED
+</t>
+  </si>
+  <si>
+    <t>http://192.168.1.83:8515/#/design/executingDetail/312e5f62-315c-4041-9f35-97e272e738e3/exection/a449a919-b888-4024-80f9-0177ab7334db/logInfo</t>
+  </si>
+  <si>
     <t>1b132cde-e0c9-4950-84aa-144164d40cd5</t>
   </si>
   <si>
-    <t>5bb50374-9469-4cec-a6a6-ee237d932f08</t>
-  </si>
-  <si>
-    <t>5c160935-0df1-4274-9d83-324cecd2df90</t>
-  </si>
-  <si>
     <t>099df9bf-02bd-4900-a09d-349ce01ad248</t>
   </si>
   <si>
+    <t>c93ed9e2-49f7-4dea-b8af-dd76ee7d8d82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: sink_自动化基础测试_HDFS ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1570914203143_2604</t>
+  </si>
+  <si>
     <t>fc02740d-9645-4c10-8123-7c7bb56be485</t>
   </si>
   <si>
+    <t>请确认flow的mode</t>
+  </si>
+  <si>
     <t>9e0c71a8-5e03-4fc4-a622-24e4ef7cb213</t>
   </si>
   <si>
@@ -1236,6 +1266,13 @@
     <t>66838cc7-80ea-41f6-84c8-c0793f35e3c1</t>
   </si>
   <si>
+    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: sqlsource_自动化基础测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>411e7fd4-1ccb-497b-9046-e984d6e6d497</t>
   </si>
   <si>
@@ -1245,48 +1282,102 @@
     <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"易思玲","sex":"女","class":"MA","age":"19","sId":"95007"},{"sName":"李娜","sex":"女","class":"CS","age":"18","sId":"95008"},{"sName":"梦圆圆","sex":"女","class":"MA","age":"18","sId":"95009"},{"sName":"孔小涛","sex":"男","class":"CS","age":"19","sId":"95010"},{"sName":"包小柏","sex":"男","class":"MA","age":"18","sId":"95011"},{"sName":"钱国","sex":"男","class":"MA","age":"21","sId":"95016"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王一","sex":"女","class":"IS","age":"19","sId":"95018"},{"sName":"邢小丽","sex":"女","class":"IS","age":"19","sId":"95019"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"}]</t>
   </si>
   <si>
+    <t>[{'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}]</t>
+  </si>
+  <si>
     <t>f25be969-842e-44c4-ba76-f1081685fb4c</t>
   </si>
   <si>
     <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"刘晨","sex":"女","class":"IS","age":"19","sId":"95002"},{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"易思玲","sex":"女","class":"MA","age":"19","sId":"95007"},{"sName":"李娜","sex":"女","class":"CS","age":"18","sId":"95008"},{"sName":"孔小涛","sex":"男","class":"CS","age":"19","sId":"95010"},{"sName":"包小柏","sex":"男","class":"MA","age":"18","sId":"95011"},{"sName":"孙花","sex":"女","class":"CS","age":"20","sId":"95012"},{"sName":"冯伟","sex":"男","class":"CS","age":"21","sId":"95013"},{"sName":"王小丽","sex":"女","class":"CS","age":"19","sId":"95014"},{"sName":"王君","sex":"男","class":"MA","age":"18","sId":"95015"},{"sName":"钱国","sex":"男","class":"MA","age":"21","sId":"95016"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王一","sex":"女","class":"IS","age":"19","sId":"95018"},{"sName":"邢小丽","sex":"女","class":"IS","age":"19","sId":"95019"},{"sName":"赵钱","sex":"男","class":"IS","age":"21","sId":"95020"},{"sName":"周二","sex":"男","class":"MA","age":"17","sId":"95021"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"}]</t>
   </si>
   <si>
+    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}]</t>
+  </si>
+  <si>
     <t>98f07970-c1be-4ad2-b3a1-1a14865bcb0b</t>
   </si>
   <si>
     <t>1a3b366e-5a03-4870-b909-133c12b91af7</t>
   </si>
   <si>
+    <t>[{'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '钱国', 'sex': '男', 'Id': '95016', 'class': 'MA', 'age': '21', 'sId': '95016', 'Name': '钱国'}, {'country': 'USA', 'sName': '王风娟', 'sex': '女', 'Id': '95017', 'class': 'IS', 'age': '18', 'sId': '95017', 'Name': '王风娟'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_df_join_rightouter ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>e3b32f0a-0bf8-493d-8990-f0512ab191d7</t>
   </si>
   <si>
     <t>1acabdb0-978f-4167-8b89-d986d81e5139</t>
   </si>
   <si>
+    <t>[{'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李dan', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '28', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '钱国', 'sex': '男', 'Id': '95016', 'class': 'MA', 'age': '21', 'sId': '95016', 'Name': '钱国'}, {'country': 'USA', 'sName': '王风娟', 'sex': '女', 'Id': '95017', 'class': 'IS', 'age': '18', 'sId': '95017', 'Name': '王风娟'}, {'country': 'USA', 'sName': '王一', 'sex': '女', 'Id': '95018', 'class': 'IS', 'age': '19', 'sId': '95018', 'Name': '王一'}, {'country': 'USA', 'sName': '邢小丽', 'sex': '女', 'Id': '95019', 'class': 'IS', 'age': '19', 'sId': '95019', 'Name': '邢小丽'}, {'country': 'USA', 'sName': '赵钱', 'sex': '男', 'Id': '95020', 'class': 'IS', 'age': '21', 'sId': '95020', 'Name': '赵钱'}, {'country': 'USA', 'sName': '周二', 'sex': '男', 'Id': '95021', 'class': 'MA', 'age': '17', 'sId': '95021', 'Name': '周二'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_df_join_基本测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>e2f5b425-1f7a-41d4-a43d-fa29c02e8dd6</t>
   </si>
   <si>
     <t>95aefa7b-73d1-4f7a-9504-c1950aa2af74</t>
   </si>
   <si>
+    <t>[{'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_df_join_outer ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>4f85413d-9fda-4407-b379-cadd5c9d3e6b</t>
   </si>
   <si>
     <t>7dd11022-dd64-40ad-a874-19821404eb50</t>
   </si>
   <si>
+    <t>17ee4f2a-66b2-42f5-bed2-269a25ac9a5b</t>
+  </si>
+  <si>
+    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_df_join_semi ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
+    <t>http://info2:8088/cluster/app/application_1570914203143_2605</t>
+  </si>
+  <si>
     <t>8b240b14-a9bd-42c2-be76-d810004c20f8</t>
   </si>
   <si>
     <t>5921139a-48cd-4de4-9252-fbe9b5ce3704</t>
   </si>
   <si>
+    <t>[{'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '28', 'source_3_country': 'China', 'source_4_sName': '李dan', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '21', 'source_3_country': 'USA', 'source_4_sName': '钱国', 'source_4_sex': '男', 'source_3_Name': '钱国', 'source_4_class': 'MA', 'source_3_Id': '95016', 'source_4_sId': '95016'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_df_starjoin_基本测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>2ee1258d-d3bd-46c2-ac00-210c67f7f871</t>
   </si>
   <si>
     <t>36adba18-7704-43b6-853a-62362f6950b7</t>
   </si>
   <si>
+    <t>[{'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李dan', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '28', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '王君', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95015', 'Name': '李勇'}, {'country': 'China', 'sName': '钱国', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '21', 'sId': '95016', 'Name': '李勇'}, {'country': 'China', 'sName': '赵钱', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '21', 'sId': '95020', 'Name': '李勇'}, {'country': 'China', 'sName': '周二', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '17', 'sId': '95021', 'Name': '李勇'}, {'country': 'China', 'sName': '郑明', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '20', 'sId': '95022', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: tc_df_productjoin_基本测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>a1fa99bf-0145-4f15-8078-186ff263bc6e</t>
   </si>
   <si>
@@ -1332,12 +1423,22 @@
     <t>ba7c2ae1-d51b-46f3-8f64-301c1fb71bd8</t>
   </si>
   <si>
+    <t>[{'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}]</t>
+  </si>
+  <si>
     <t>411e2686-9089-4f81-a0cb-85e1e394a0f8</t>
   </si>
   <si>
     <t>34527417-b03f-4fab-b08c-5b52f171ac75</t>
   </si>
   <si>
+    <t>[{'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: intersect_自动化基础测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>9ba50d38-dd41-41ba-bd13-a99b25875d3d</t>
   </si>
   <si>
@@ -1350,18 +1451,32 @@
     <t>e7df08b3-4875-47a5-8312-209c06e26665</t>
   </si>
   <si>
+    <t xml:space="preserve">flowname: decision_自动化基础测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>74cbeba7-bf67-4b93-807c-260e50453ba6</t>
   </si>
   <si>
     <t>b5f288a5-0306-4c1a-a219-fbc26724f09f</t>
   </si>
   <si>
+    <t>[{'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flowname: validate_自动化基础测试 ---&gt;预期结果实际结果不一致 
+</t>
+  </si>
+  <si>
     <t>c6bc91c3-86ab-4698-9839-81248d37a886</t>
   </si>
   <si>
     <t>6bd7eb27-e7cc-4c12-8d72-b468e56f5a1a</t>
   </si>
   <si>
+    <t>[{'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王君', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '赵钱', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}]</t>
+  </si>
+  <si>
     <t>f77581c7-a467-4c0f-87d5-064e3494837a</t>
   </si>
   <si>
@@ -1422,24 +1537,45 @@
     <t>db2fbfc3-ee83-421b-8470-0c9004392c78</t>
   </si>
   <si>
+    <t>[{'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
+  </si>
+  <si>
     <t>310ad26d-d686-483e-9457-385d290a5946</t>
   </si>
   <si>
+    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '459.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': '', 'AGE': '459.0'}, {'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
+  </si>
+  <si>
     <t>7e6db9e2-40f7-4c8d-b55a-4019787f9697</t>
   </si>
   <si>
+    <t>[{'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}]</t>
+  </si>
+  <si>
     <t>b1ad69ca-3c3a-47b1-9d29-e1848d3af472</t>
   </si>
   <si>
+    <t>[{'SALARY': '1000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2170.0'}]</t>
+  </si>
+  <si>
     <t>b8d4415a-f348-47b6-9ea2-120b0fab1c63</t>
   </si>
   <si>
+    <t>[{'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '1000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2170.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}]</t>
+  </si>
+  <si>
     <t>743ec08f-fb3f-44e9-aaff-fa4eee3a8e93</t>
   </si>
   <si>
+    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '459.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': '', 'AGE': '459.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
+  </si>
+  <si>
     <t>ec142b2f-f75a-405e-9485-b0f7d9aa98d3</t>
   </si>
   <si>
+    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '1000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2170.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
+  </si>
+  <si>
     <t>d298d660-b47a-4d79-8118-d43a0614b23</t>
   </si>
   <si>
@@ -1449,23 +1585,13 @@
     <t>[{"SALARY":"458.0","GENDER":"GENDER","TIME":"","JOB":"job","NAME":"name5","AGE":"458.0"},{"SALARY":"459.0","GENDER":"GENDER","TIME":"","JOB":"job","NAME":"","AGE":"459.0"}]</t>
   </si>
   <si>
+    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '459.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': '', 'AGE': '459.0'}]</t>
+  </si>
+  <si>
     <t>0c00515c-76d1-4d5f-a110-e950f354d708</t>
   </si>
   <si>
     <t>e431bdb0-36bf-488f-8559-5da954562db1</t>
-  </si>
-  <si>
-    <r>
-      <t>sink_multioutput_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-      </rPr>
-      <t>自动化基础测试</t>
-    </r>
   </si>
   <si>
     <t>b2ed1eca-f5fe-4309-ba86-bc53c5dfb183</t>
@@ -1476,220 +1602,220 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="29">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
       <name val="Consolas"/>
       <charset val="0"/>
+      <color rgb="FF222222"/>
+      <sz val="9"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <color rgb="FF212121"/>
+      <sz val="9"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
       <name val="Consolas"/>
       <charset val="0"/>
+      <color rgb="FF212121"/>
+      <sz val="9"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color indexed="8"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="36">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1714,13 +1840,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,37 +1894,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,7 +1930,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,109 +2014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,6 +2043,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1928,6 +2063,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1957,21 +2118,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1985,252 +2131,227 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2">
+    <xf applyAlignment="1" borderId="3" fillId="22" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="165">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5">
+    <xf applyAlignment="1" borderId="4" fillId="17" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6">
+    <xf applyAlignment="1" borderId="8" fillId="16" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="2">
+    <xf applyAlignment="1" borderId="3" fillId="16" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4">
+    <xf applyAlignment="1" borderId="7" fillId="31" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="35" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -2490,27 +2611,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A5" sqref="$A1:$XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="40.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="37.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="21.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="55" customWidth="1"/>
-    <col min="8" max="8" width="42.7142857142857" customWidth="1"/>
-    <col min="12" max="12" width="26.5714285714286" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="10" width="18.1428571428571"/>
+    <col customWidth="1" max="3" min="3" style="10" width="40.5714285714286"/>
+    <col customWidth="1" max="4" min="4" style="10" width="37.2857142857143"/>
+    <col customWidth="1" max="5" min="5" style="10" width="21.2857142857143"/>
+    <col customWidth="1" max="6" min="6" style="10" width="17.5714285714286"/>
+    <col customWidth="1" max="7" min="7" style="10" width="55"/>
+    <col customWidth="1" max="8" min="8" style="10" width="42.7142857142857"/>
+    <col customWidth="1" max="12" min="12" style="10" width="26.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:13">
+    <row customHeight="1" ht="16.5" r="1" s="10" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2552,7 +2676,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2585,12 +2709,12 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2623,12 +2747,12 @@
       <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2661,12 +2785,12 @@
       <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2699,12 +2823,12 @@
       <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -2731,12 +2855,12 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -2763,12 +2887,12 @@
       <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -2795,12 +2919,12 @@
       <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2833,12 +2957,12 @@
       <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2871,12 +2995,12 @@
       <c r="L10" t="s">
         <v>58</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2909,12 +3033,12 @@
       <c r="L11" t="s">
         <v>58</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="s">
@@ -2941,12 +3065,12 @@
       <c r="L12" t="s">
         <v>58</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2979,12 +3103,12 @@
       <c r="L13" t="s">
         <v>70</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3017,12 +3141,12 @@
       <c r="L14" t="s">
         <v>75</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3055,12 +3179,12 @@
       <c r="L15" t="s">
         <v>75</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3093,12 +3217,12 @@
       <c r="L16" t="s">
         <v>87</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3131,12 +3255,12 @@
       <c r="L17" t="s">
         <v>94</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3169,12 +3293,12 @@
       <c r="L18" t="s">
         <v>101</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -3207,12 +3331,12 @@
       <c r="L19" t="s">
         <v>108</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -3245,12 +3369,12 @@
       <c r="L20" t="s">
         <v>115</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="s">
@@ -3277,12 +3401,12 @@
       <c r="L21" t="s">
         <v>115</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="s">
@@ -3309,12 +3433,12 @@
       <c r="L22" t="s">
         <v>115</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="s">
@@ -3341,12 +3465,12 @@
       <c r="L23" t="s">
         <v>115</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3379,12 +3503,12 @@
       <c r="L24" t="s">
         <v>129</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -3417,12 +3541,12 @@
       <c r="L25" t="s">
         <v>134</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="s">
@@ -3449,12 +3573,12 @@
       <c r="L26" t="s">
         <v>134</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -3487,12 +3611,12 @@
       <c r="L27" t="s">
         <v>142</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3519,12 +3643,12 @@
       <c r="L28" t="s">
         <v>142</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -3557,12 +3681,12 @@
       <c r="L29" t="s">
         <v>152</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3598,12 +3722,12 @@
       <c r="L30" t="s">
         <v>161</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3636,12 +3760,12 @@
       <c r="L31" t="s">
         <v>166</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3674,12 +3798,12 @@
       <c r="L32" t="s">
         <v>174</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="D33" t="s">
@@ -3706,12 +3830,12 @@
       <c r="L33" t="s">
         <v>174</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="D34" t="s">
@@ -3738,12 +3862,12 @@
       <c r="L34" t="s">
         <v>174</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="D35" t="s">
@@ -3770,12 +3894,12 @@
       <c r="L35" t="s">
         <v>174</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="D36" t="s">
@@ -3802,12 +3926,12 @@
       <c r="L36" t="s">
         <v>174</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="D37" t="s">
@@ -3834,12 +3958,12 @@
       <c r="L37" t="s">
         <v>174</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -3875,12 +3999,12 @@
       <c r="L38" t="s">
         <v>189</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="D39" t="s">
@@ -3910,12 +4034,12 @@
       <c r="L39" t="s">
         <v>189</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="D40" t="s">
@@ -3942,12 +4066,12 @@
       <c r="L40" t="s">
         <v>189</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3980,12 +4104,12 @@
       <c r="L41" t="s">
         <v>201</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="D42" t="s">
@@ -4012,12 +4136,12 @@
       <c r="L42" t="s">
         <v>201</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="D43" t="s">
@@ -4044,12 +4168,12 @@
       <c r="L43" t="s">
         <v>201</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="D44" t="s">
@@ -4076,12 +4200,12 @@
       <c r="L44" t="s">
         <v>201</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
+    <row r="45" spans="1:13">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -4115,8 +4239,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
+    <row r="46" spans="1:13">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -4144,8 +4268,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
+    <row r="47" spans="1:13">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -4179,8 +4303,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
+    <row r="48" spans="1:13">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -4208,8 +4332,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
+    <row r="49" spans="1:13">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -4243,8 +4367,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
+    <row r="50" spans="1:13">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -4272,8 +4396,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51">
+    <row r="51" spans="1:13">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4301,8 +4425,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52">
+    <row r="52" spans="1:13">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -4330,8 +4454,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
+    <row r="53" spans="1:13">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -4359,8 +4483,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
+    <row r="54" spans="1:13">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -4388,8 +4512,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55">
+    <row r="55" spans="1:13">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -4417,8 +4541,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
+    <row r="56" spans="1:13">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -4446,8 +4570,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
+    <row r="57" spans="1:13">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4476,7 +4600,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58">
+      <c r="A58" t="n">
         <v>20</v>
       </c>
       <c r="B58" t="s">
@@ -4509,12 +4633,12 @@
       <c r="L58" t="s">
         <v>254</v>
       </c>
-      <c r="M58">
+      <c r="M58" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59">
+      <c r="A59" t="n">
         <v>21</v>
       </c>
       <c r="B59" t="s">
@@ -4547,12 +4671,12 @@
       <c r="L59" t="s">
         <v>254</v>
       </c>
-      <c r="M59">
+      <c r="M59" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60">
+      <c r="A60" t="n">
         <v>22</v>
       </c>
       <c r="B60" t="s">
@@ -4585,12 +4709,12 @@
       <c r="L60" t="s">
         <v>254</v>
       </c>
-      <c r="M60">
+      <c r="M60" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61">
+      <c r="A61" t="n">
         <v>23</v>
       </c>
       <c r="B61" t="s">
@@ -4623,12 +4747,12 @@
       <c r="L61" t="s">
         <v>254</v>
       </c>
-      <c r="M61">
+      <c r="M61" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62">
+      <c r="A62" t="n">
         <v>24</v>
       </c>
       <c r="B62" t="s">
@@ -4661,12 +4785,12 @@
       <c r="L62" t="s">
         <v>254</v>
       </c>
-      <c r="M62">
+      <c r="M62" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63">
+      <c r="A63" t="n">
         <v>25</v>
       </c>
       <c r="B63" t="s">
@@ -4699,12 +4823,12 @@
       <c r="L63" t="s">
         <v>254</v>
       </c>
-      <c r="M63">
+      <c r="M63" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64">
+      <c r="A64" t="n">
         <v>26</v>
       </c>
       <c r="B64" t="s">
@@ -4737,12 +4861,12 @@
       <c r="L64" t="s">
         <v>254</v>
       </c>
-      <c r="M64">
+      <c r="M64" t="n">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65">
+      <c r="A65" t="n">
         <v>27</v>
       </c>
       <c r="B65" t="s">
@@ -4775,32 +4899,34 @@
       <c r="L65" t="s">
         <v>254</v>
       </c>
-      <c r="M65">
+      <c r="M65" t="n">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="43.4285714285714" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="10" width="33"/>
+    <col customWidth="1" max="3" min="3" style="10" width="43.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:13">
+    <row customHeight="1" ht="15.75" r="1" s="10" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4842,7 +4968,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4875,12 +5001,12 @@
       <c r="L2" t="s">
         <v>258</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4913,12 +5039,12 @@
       <c r="L3" t="s">
         <v>261</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -4951,12 +5077,12 @@
       <c r="L4" t="s">
         <v>264</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4989,12 +5115,12 @@
       <c r="L5" t="s">
         <v>267</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -5030,12 +5156,12 @@
       <c r="L6" t="s">
         <v>271</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -5062,12 +5188,12 @@
       <c r="L7" t="s">
         <v>271</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -5100,12 +5226,12 @@
       <c r="L8" t="s">
         <v>278</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -5138,12 +5264,12 @@
       <c r="L9" t="s">
         <v>281</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -5176,12 +5302,12 @@
       <c r="L10" t="s">
         <v>285</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -5214,12 +5340,12 @@
       <c r="L11" t="s">
         <v>289</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5252,12 +5378,12 @@
       <c r="L12" t="s">
         <v>293</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -5290,12 +5416,12 @@
       <c r="L13" t="s">
         <v>297</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -5328,12 +5454,12 @@
       <c r="L14" t="s">
         <v>301</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -5366,12 +5492,12 @@
       <c r="L15" t="s">
         <v>305</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -5395,12 +5521,12 @@
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -5418,12 +5544,12 @@
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5441,12 +5567,12 @@
       <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5464,12 +5590,12 @@
       <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -5493,12 +5619,12 @@
       <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -5522,12 +5648,12 @@
       <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -5545,12 +5671,12 @@
       <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -5574,12 +5700,12 @@
       <c r="K23" t="s">
         <v>21</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -5597,12 +5723,12 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -5626,12 +5752,12 @@
       <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5655,12 +5781,12 @@
       <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -5684,12 +5810,12 @@
       <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5713,12 +5839,12 @@
       <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -5736,12 +5862,12 @@
       <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -5759,12 +5885,12 @@
       <c r="K30" t="s">
         <v>21</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -5782,12 +5908,12 @@
       <c r="K31" t="s">
         <v>21</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -5805,12 +5931,12 @@
       <c r="K32" t="s">
         <v>21</v>
       </c>
-      <c r="M32">
+      <c r="M32" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5828,12 +5954,12 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -5857,12 +5983,12 @@
       <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -5880,12 +6006,12 @@
       <c r="K35" t="s">
         <v>21</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -5903,12 +6029,12 @@
       <c r="K36" t="s">
         <v>21</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -5932,12 +6058,12 @@
       <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -5955,12 +6081,12 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -5978,12 +6104,12 @@
       <c r="K39" t="s">
         <v>21</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -6001,12 +6127,12 @@
       <c r="K40" t="s">
         <v>21</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -6030,12 +6156,12 @@
       <c r="K41" t="s">
         <v>21</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -6053,12 +6179,12 @@
       <c r="K42" t="s">
         <v>21</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -6082,12 +6208,12 @@
       <c r="K43" t="s">
         <v>21</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -6105,12 +6231,12 @@
       <c r="K44" t="s">
         <v>21</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -6134,12 +6260,12 @@
       <c r="K45" t="s">
         <v>21</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -6157,12 +6283,12 @@
       <c r="K46" t="s">
         <v>21</v>
       </c>
-      <c r="M46">
+      <c r="M46" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -6180,12 +6306,12 @@
       <c r="K47" t="s">
         <v>21</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -6203,12 +6329,12 @@
       <c r="K48" t="s">
         <v>21</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -6226,12 +6352,12 @@
       <c r="K49" t="s">
         <v>21</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -6249,12 +6375,12 @@
       <c r="K50" t="s">
         <v>21</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -6272,12 +6398,12 @@
       <c r="K51" t="s">
         <v>21</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6295,12 +6421,12 @@
       <c r="K52" t="s">
         <v>21</v>
       </c>
-      <c r="M52">
+      <c r="M52" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6318,34 +6444,36 @@
       <c r="K53" t="s">
         <v>21</v>
       </c>
-      <c r="M53">
+      <c r="M53" t="n">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="39.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="36.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="12" max="12" width="95.1428571428571" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="10" width="39.7142857142857"/>
+    <col customWidth="1" max="3" min="3" style="10" width="36.1428571428571"/>
+    <col customWidth="1" max="4" min="4" style="10" width="37"/>
+    <col customWidth="1" max="12" min="12" style="10" width="95.1428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:13">
+    <row customHeight="1" ht="16.5" r="1" s="10" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +6515,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -6399,1246 +6527,2091 @@
       <c r="D2" s="5" t="s">
         <v>388</v>
       </c>
+      <c r="E2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
+      <c r="H2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" t="s">
+        <v>391</v>
+      </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="M2">
+      <c r="L2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M2" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>390</v>
+        <v>394</v>
+      </c>
+      <c r="E3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s"/>
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="M3">
+      <c r="L3" t="s">
+        <v>392</v>
+      </c>
+      <c r="M3" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
+      </c>
+      <c r="E4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" t="s">
+        <v>398</v>
+      </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="M4">
+      <c r="L4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M4" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
+      </c>
+      <c r="E5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="H5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" t="s">
+        <v>403</v>
+      </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="M5">
+      <c r="L5" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>395</v>
+        <v>405</v>
+      </c>
+      <c r="E6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>83</v>
+      <c r="H6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>406</v>
+      </c>
+      <c r="L6" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>396</v>
+        <v>407</v>
+      </c>
+      <c r="E7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
+      <c r="H7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>397</v>
+        <v>408</v>
+      </c>
+      <c r="E8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="4:7">
+      <c r="H8" t="s">
+        <v>390</v>
+      </c>
+      <c r="I8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>404</v>
+      </c>
+      <c r="M8" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>398</v>
+        <v>410</v>
+      </c>
+      <c r="E9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
       </c>
       <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>404</v>
+      </c>
+      <c r="M9" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>413</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>404</v>
+      </c>
+      <c r="M10" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="H11" t="s">
+        <v>418</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>404</v>
+      </c>
+      <c r="M11" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" t="s">
+        <v>421</v>
+      </c>
+      <c r="I12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>404</v>
+      </c>
+      <c r="M12" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" t="s">
+        <v>425</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>404</v>
+      </c>
+      <c r="M13" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>428</v>
+      </c>
+      <c r="I14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" t="s">
+        <v>429</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>404</v>
+      </c>
+      <c r="M14" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>433</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" t="s">
+        <v>404</v>
+      </c>
+      <c r="M15" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>437</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>438</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>439</v>
+      </c>
+      <c r="M16" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E17" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>443</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>439</v>
+      </c>
+      <c r="M17" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" t="s">
+        <v>436</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" t="s">
+        <v>446</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>447</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>439</v>
+      </c>
+      <c r="M18" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="B19" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" t="s">
+        <v>436</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>439</v>
+      </c>
+      <c r="M19" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E20" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>439</v>
+      </c>
+      <c r="M20" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" t="s">
+        <v>436</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>233</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>439</v>
+      </c>
+      <c r="M21" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>439</v>
+      </c>
+      <c r="M22" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E23" t="s">
+        <v>436</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>439</v>
+      </c>
+      <c r="M23" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>439</v>
+      </c>
+      <c r="M24" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" t="s">
+        <v>436</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>439</v>
+      </c>
+      <c r="M25" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>413</v>
+      </c>
+      <c r="I26" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E27" t="s">
+        <v>436</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>439</v>
+      </c>
+      <c r="M27" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E28" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>463</v>
+      </c>
+      <c r="I28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>439</v>
+      </c>
+      <c r="M28" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>466</v>
+      </c>
+      <c r="I29" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" t="s">
+        <v>467</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>439</v>
+      </c>
+      <c r="M29" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E30" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" t="s">
+        <v>158</v>
+      </c>
+      <c r="I30" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>439</v>
+      </c>
+      <c r="M30" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
         <v>18</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10">
+      <c r="H31" t="s">
+        <v>390</v>
+      </c>
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" t="s">
+        <v>472</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>439</v>
+      </c>
+      <c r="M31" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E32" t="s">
+        <v>436</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" t="s">
+        <v>475</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" t="s">
+        <v>476</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>439</v>
+      </c>
+      <c r="M32" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" t="s">
+        <v>475</v>
+      </c>
+      <c r="I33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J33" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>439</v>
+      </c>
+      <c r="M33" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E34" t="s">
+        <v>436</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" t="s">
+        <v>479</v>
+      </c>
+      <c r="I34" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>439</v>
+      </c>
+      <c r="M34" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E35" t="s">
+        <v>436</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>413</v>
+      </c>
+      <c r="I35" t="s">
+        <v>159</v>
+      </c>
+      <c r="J35" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>439</v>
+      </c>
+      <c r="M35" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E36" t="s">
+        <v>436</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" t="s">
+        <v>475</v>
+      </c>
+      <c r="I36" t="s">
+        <v>159</v>
+      </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>439</v>
+      </c>
+      <c r="M36" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E37" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" t="s">
+        <v>475</v>
+      </c>
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>439</v>
+      </c>
+      <c r="M37" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E38" t="s">
+        <v>436</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>439</v>
+      </c>
+      <c r="M38" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E39" t="s">
+        <v>436</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>439</v>
+      </c>
+      <c r="M39" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E40" t="s">
+        <v>436</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>439</v>
+      </c>
+      <c r="M40" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E41" t="s">
+        <v>436</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>439</v>
+      </c>
+      <c r="M41" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E42" t="s">
+        <v>436</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>159</v>
+      </c>
+      <c r="J42" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>439</v>
+      </c>
+      <c r="M42" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E43" t="s">
+        <v>436</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>206</v>
+      </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
+      <c r="J43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>439</v>
+      </c>
+      <c r="M43" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E44" t="s">
+        <v>436</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" t="s">
+        <v>233</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>439</v>
+      </c>
+      <c r="M44" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E45" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>439</v>
+      </c>
+      <c r="M45" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E46" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>439</v>
+      </c>
+      <c r="M46" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B47" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E47" t="s">
+        <v>436</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>225</v>
+      </c>
+      <c r="I47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J47" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>439</v>
+      </c>
+      <c r="M47" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E48" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J48" t="s">
+        <v>233</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
+        <v>439</v>
+      </c>
+      <c r="M48" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49" t="s">
+        <v>500</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s"/>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11">
+      <c r="D50" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="E50" t="s">
+        <v>436</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" t="s">
+        <v>502</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s"/>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>439</v>
+      </c>
+      <c r="M50" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="51" spans="1:13">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E51" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>243</v>
+      </c>
+      <c r="H51" t="s">
+        <v>504</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s"/>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>439</v>
+      </c>
+      <c r="M51" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="E52" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>239</v>
+      </c>
+      <c r="H52" t="s">
+        <v>506</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s"/>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
+      <c r="M52" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E53" t="s">
+        <v>436</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>241</v>
+      </c>
+      <c r="H53" t="s">
+        <v>508</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s"/>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
+      <c r="M53" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D54" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E54" t="s">
+        <v>436</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" t="s">
+        <v>510</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s"/>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>439</v>
+      </c>
+      <c r="M54" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E55" t="s">
+        <v>436</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>237</v>
+      </c>
+      <c r="H55" t="s">
+        <v>512</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s"/>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>439</v>
+      </c>
+      <c r="M55" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E56" t="s">
+        <v>436</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>245</v>
+      </c>
+      <c r="I56" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" t="s">
+        <v>233</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
+      <c r="M56" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12">
+      <c r="D57" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E57" t="s">
+        <v>436</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>515</v>
+      </c>
+      <c r="H57" t="s">
+        <v>516</v>
+      </c>
+      <c r="I57" t="s">
+        <v>159</v>
+      </c>
+      <c r="J57" t="s">
+        <v>406</v>
+      </c>
+      <c r="L57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E58" t="s">
+        <v>436</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>239</v>
+      </c>
+      <c r="H58" t="s">
+        <v>506</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s"/>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
+      <c r="M58" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13">
+    <row r="59" spans="1:13">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C59" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E59" t="s">
+        <v>436</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>252</v>
+      </c>
+      <c r="I59" t="s">
+        <v>159</v>
+      </c>
+      <c r="J59" t="s">
+        <v>233</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="G23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G24" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="K25" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="G28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="G29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G30" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="G31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C32" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="G32" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="K33" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G34" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="G35" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G36" t="s">
-        <v>181</v>
-      </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="G38" t="s">
-        <v>172</v>
-      </c>
-      <c r="K38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="G39" t="s">
-        <v>172</v>
-      </c>
-      <c r="K39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="G40" t="s">
-        <v>186</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="G41" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="G42" t="s">
-        <v>195</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G43" t="s">
-        <v>203</v>
-      </c>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="G44" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="G45" t="s">
-        <v>206</v>
-      </c>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="G46" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="K46" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="G47" t="s">
-        <v>215</v>
-      </c>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G48" t="s">
-        <v>219</v>
-      </c>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="K48" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49">
-        <v>46</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C49" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="G49" t="s">
-        <v>225</v>
-      </c>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50">
-        <v>47</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="G50" t="s">
-        <v>225</v>
-      </c>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C51" t="s">
-        <v>230</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G51" t="s">
-        <v>232</v>
-      </c>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="G52" t="s">
-        <v>247</v>
-      </c>
-      <c r="K52" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53">
-        <v>50</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G53" t="s">
-        <v>243</v>
-      </c>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54">
-        <v>51</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="G54" t="s">
-        <v>239</v>
-      </c>
-      <c r="K54" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>52</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="G55" t="s">
-        <v>241</v>
-      </c>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="G56" t="s">
-        <v>235</v>
-      </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57">
-        <v>54</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="G57" t="s">
-        <v>237</v>
-      </c>
-      <c r="K57" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58">
-        <v>55</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G58" t="s">
-        <v>245</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>56</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="G59" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60">
-        <v>57</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G60" t="s">
-        <v>239</v>
-      </c>
-      <c r="K60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G61" t="s">
-        <v>252</v>
-      </c>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="K61" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14070" windowWidth="24135"/>
+    <workbookView windowWidth="24135" windowHeight="14070" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="flow_info-76" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="flow_info-57" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="flow_info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="flow_info-76" sheetId="1" r:id="rId1"/>
+    <sheet name="flow_info-57" sheetId="2" r:id="rId2"/>
+    <sheet name="flow_info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:M61"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478">
   <si>
     <t>id</t>
   </si>
@@ -1191,19 +1192,6 @@
     <t>d762deac-700b-459f-b110-1d0f2fe8d97a</t>
   </si>
   <si>
-    <t>672d6484-a277-459a-a878-4a5e16fd6a16</t>
-  </si>
-  <si>
-    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: source_自动化基础测试_HDFS_csv ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
-    <t>http://info2:8088/cluster/app/application_1570914203143_2589</t>
-  </si>
-  <si>
     <t>45c63cfd-2475-461a-a703-f98f9e54b607</t>
   </si>
   <si>
@@ -1216,38 +1204,18 @@
     <t>424c9f27-00b4-4176-af2f-a2dfe26afe61</t>
   </si>
   <si>
-    <t>a449a919-b888-4024-80f9-0177ab7334db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: source_自动化基础测试_JDBC_mysql ---&gt;执行状态为 FAILED
-</t>
-  </si>
-  <si>
-    <t>http://192.168.1.83:8515/#/design/executingDetail/312e5f62-315c-4041-9f35-97e272e738e3/exection/a449a919-b888-4024-80f9-0177ab7334db/logInfo</t>
-  </si>
-  <si>
     <t>1b132cde-e0c9-4950-84aa-144164d40cd5</t>
   </si>
   <si>
+    <t>5c160935-0df1-4274-9d83-324cecd2df90</t>
+  </si>
+  <si>
     <t>099df9bf-02bd-4900-a09d-349ce01ad248</t>
   </si>
   <si>
-    <t>c93ed9e2-49f7-4dea-b8af-dd76ee7d8d82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: sink_自动化基础测试_HDFS ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
-    <t>http://info2:8088/cluster/app/application_1570914203143_2604</t>
-  </si>
-  <si>
     <t>fc02740d-9645-4c10-8123-7c7bb56be485</t>
   </si>
   <si>
-    <t>请确认flow的mode</t>
-  </si>
-  <si>
     <t>9e0c71a8-5e03-4fc4-a622-24e4ef7cb213</t>
   </si>
   <si>
@@ -1266,13 +1234,6 @@
     <t>66838cc7-80ea-41f6-84c8-c0793f35e3c1</t>
   </si>
   <si>
-    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: sqlsource_自动化基础测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>411e7fd4-1ccb-497b-9046-e984d6e6d497</t>
   </si>
   <si>
@@ -1282,102 +1243,48 @@
     <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"易思玲","sex":"女","class":"MA","age":"19","sId":"95007"},{"sName":"李娜","sex":"女","class":"CS","age":"18","sId":"95008"},{"sName":"梦圆圆","sex":"女","class":"MA","age":"18","sId":"95009"},{"sName":"孔小涛","sex":"男","class":"CS","age":"19","sId":"95010"},{"sName":"包小柏","sex":"男","class":"MA","age":"18","sId":"95011"},{"sName":"钱国","sex":"男","class":"MA","age":"21","sId":"95016"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王一","sex":"女","class":"IS","age":"19","sId":"95018"},{"sName":"邢小丽","sex":"女","class":"IS","age":"19","sId":"95019"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"}]</t>
   </si>
   <si>
-    <t>[{'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}]</t>
-  </si>
-  <si>
     <t>f25be969-842e-44c4-ba76-f1081685fb4c</t>
   </si>
   <si>
     <t>[{"sName":"李勇","sex":"男","class":"CS","age":"20","sId":"95001"},{"sName":"刘晨","sex":"女","class":"IS","age":"19","sId":"95002"},{"sName":"王敏","sex":"女","class":"MA","age":"22","sId":"95003"},{"sName":"张立","sex":"男","class":"IS","age":"19","sId":"95004"},{"sName":"刘刚","sex":"男","class":"MA","age":"18","sId":"95005"},{"sName":"孙庆","sex":"男","class":"CS","age":"23","sId":"95006"},{"sName":"易思玲","sex":"女","class":"MA","age":"19","sId":"95007"},{"sName":"李娜","sex":"女","class":"CS","age":"18","sId":"95008"},{"sName":"孔小涛","sex":"男","class":"CS","age":"19","sId":"95010"},{"sName":"包小柏","sex":"男","class":"MA","age":"18","sId":"95011"},{"sName":"孙花","sex":"女","class":"CS","age":"20","sId":"95012"},{"sName":"冯伟","sex":"男","class":"CS","age":"21","sId":"95013"},{"sName":"王小丽","sex":"女","class":"CS","age":"19","sId":"95014"},{"sName":"王君","sex":"男","class":"MA","age":"18","sId":"95015"},{"sName":"钱国","sex":"男","class":"MA","age":"21","sId":"95016"},{"sName":"王风娟","sex":"女","class":"IS","age":"18","sId":"95017"},{"sName":"王一","sex":"女","class":"IS","age":"19","sId":"95018"},{"sName":"邢小丽","sex":"女","class":"IS","age":"19","sId":"95019"},{"sName":"赵钱","sex":"男","class":"IS","age":"21","sId":"95020"},{"sName":"周二","sex":"男","class":"MA","age":"17","sId":"95021"},{"sName":"郑明","sex":"男","class":"MA","age":"20","sId":"95022"}]</t>
   </si>
   <si>
-    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}]</t>
-  </si>
-  <si>
     <t>98f07970-c1be-4ad2-b3a1-1a14865bcb0b</t>
   </si>
   <si>
     <t>1a3b366e-5a03-4870-b909-133c12b91af7</t>
   </si>
   <si>
-    <t>[{'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '钱国', 'sex': '男', 'Id': '95016', 'class': 'MA', 'age': '21', 'sId': '95016', 'Name': '钱国'}, {'country': 'USA', 'sName': '王风娟', 'sex': '女', 'Id': '95017', 'class': 'IS', 'age': '18', 'sId': '95017', 'Name': '王风娟'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_df_join_rightouter ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>e3b32f0a-0bf8-493d-8990-f0512ab191d7</t>
   </si>
   <si>
     <t>1acabdb0-978f-4167-8b89-d986d81e5139</t>
   </si>
   <si>
-    <t>[{'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李dan', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '28', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'USA', 'sName': '钱国', 'sex': '男', 'Id': '95016', 'class': 'MA', 'age': '21', 'sId': '95016', 'Name': '钱国'}, {'country': 'USA', 'sName': '王风娟', 'sex': '女', 'Id': '95017', 'class': 'IS', 'age': '18', 'sId': '95017', 'Name': '王风娟'}, {'country': 'USA', 'sName': '王一', 'sex': '女', 'Id': '95018', 'class': 'IS', 'age': '19', 'sId': '95018', 'Name': '王一'}, {'country': 'USA', 'sName': '邢小丽', 'sex': '女', 'Id': '95019', 'class': 'IS', 'age': '19', 'sId': '95019', 'Name': '邢小丽'}, {'country': 'USA', 'sName': '赵钱', 'sex': '男', 'Id': '95020', 'class': 'IS', 'age': '21', 'sId': '95020', 'Name': '赵钱'}, {'country': 'USA', 'sName': '周二', 'sex': '男', 'Id': '95021', 'class': 'MA', 'age': '17', 'sId': '95021', 'Name': '周二'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}, {'country': 'USA', 'sName': '李娜', 'sex': '女', 'Id': '95008', 'class': 'CS', 'age': '18', 'sId': '95008', 'Name': '李娜'}, {'country': 'USA', 'sName': '梦圆圆', 'sex': '女', 'Id': '95009', 'class': 'MA', 'age': '18', 'sId': '95009', 'Name': '梦圆圆'}, {'country': 'USA', 'sName': '孔小涛', 'sex': '男', 'Id': '95010', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '孔小涛'}, {'country': 'USA', 'sName': '包小柏', 'sex': '男', 'Id': '95011', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '包小柏'}, {'country': 'USA', 'sName': '孙花', 'sex': '女', 'Id': '95012', 'class': 'CS', 'age': '20', 'sId': '95012', 'Name': '孙花'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '刘晨', 'sex': '女', 'Id': '95002', 'class': 'IS', 'age': '19', 'sId': '95002', 'Name': '刘晨'}, {'country': 'China', 'sName': '王敏', 'sex': '女', 'Id': '95003', 'class': 'MA', 'age': '22', 'sId': '95003', 'Name': '王敏'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95004', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '张立'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95005', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '刘刚'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95006', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '孙庆'}, {'country': 'China', 'sName': '易思玲', 'sex': '女', 'Id': '95007', 'class': 'MA', 'age': '19', 'sId': '95007', 'Name': '易思玲'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_df_join_基本测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>e2f5b425-1f7a-41d4-a43d-fa29c02e8dd6</t>
   </si>
   <si>
     <t>95aefa7b-73d1-4f7a-9504-c1950aa2af74</t>
   </si>
   <si>
-    <t>[{'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}, {'country': '', 'sName': '冯伟', 'sex': '男', 'Id': '', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': ''}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_df_join_outer ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>4f85413d-9fda-4407-b379-cadd5c9d3e6b</t>
   </si>
   <si>
     <t>7dd11022-dd64-40ad-a874-19821404eb50</t>
   </si>
   <si>
-    <t>17ee4f2a-66b2-42f5-bed2-269a25ac9a5b</t>
-  </si>
-  <si>
-    <t>[{'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_df_join_semi ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
-    <t>http://info2:8088/cluster/app/application_1570914203143_2605</t>
-  </si>
-  <si>
     <t>8b240b14-a9bd-42c2-be76-d810004c20f8</t>
   </si>
   <si>
     <t>5921139a-48cd-4de4-9252-fbe9b5ce3704</t>
   </si>
   <si>
-    <t>[{'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '28', 'source_3_country': 'China', 'source_4_sName': '李dan', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '20', 'source_3_country': 'China', 'source_4_sName': '李勇', 'source_4_sex': '男', 'source_3_Name': '李勇', 'source_4_class': 'CS', 'source_3_Id': '95001', 'source_4_sId': '95001'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '刘晨', 'source_4_sex': '女', 'source_3_Name': '刘晨', 'source_4_class': 'IS', 'source_3_Id': '95002', 'source_4_sId': '95002'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '22', 'source_3_country': 'China', 'source_4_sName': '王敏', 'source_4_sex': '女', 'source_3_Name': '王敏', 'source_4_class': 'MA', 'source_3_Id': '95003', 'source_4_sId': '95003'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '张立', 'source_4_sex': '男', 'source_3_Name': '张立', 'source_4_class': 'IS', 'source_3_Id': '95004', 'source_4_sId': '95004'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '18', 'source_3_country': 'China', 'source_4_sName': '刘刚', 'source_4_sex': '男', 'source_3_Name': '刘刚', 'source_4_class': 'MA', 'source_3_Id': '95005', 'source_4_sId': '95005'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '23', 'source_3_country': 'China', 'source_4_sName': '孙庆', 'source_4_sex': '男', 'source_3_Name': '孙庆', 'source_4_class': 'CS', 'source_3_Id': '95006', 'source_4_sId': '95006'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '19', 'source_3_country': 'China', 'source_4_sName': '易思玲', 'source_4_sex': '女', 'source_3_Name': '易思玲', 'source_4_class': 'MA', 'source_3_Id': '95007', 'source_4_sId': '95007'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '李娜', 'source_4_sex': '女', 'source_3_Name': '李娜', 'source_4_class': 'CS', 'source_3_Id': '95008', 'source_4_sId': '95008'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '梦圆圆', 'source_4_sex': '女', 'source_3_Name': '梦圆圆', 'source_4_class': 'MA', 'source_3_Id': '95009', 'source_4_sId': '95009'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '19', 'source_3_country': 'USA', 'source_4_sName': '孔小涛', 'source_4_sex': '男', 'source_3_Name': '孔小涛', 'source_4_class': 'CS', 'source_3_Id': '95010', 'source_4_sId': '95010'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '18', 'source_3_country': 'USA', 'source_4_sName': '包小柏', 'source_4_sex': '男', 'source_3_Name': '包小柏', 'source_4_class': 'MA', 'source_3_Id': '95011', 'source_4_sId': '95011'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '20', 'source_3_country': 'USA', 'source_4_sName': '孙花', 'source_4_sex': '女', 'source_3_Name': '孙花', 'source_4_class': 'CS', 'source_3_Id': '95012', 'source_4_sId': '95012'}, {'source_4_age': '21', 'source_3_country': 'USA', 'source_4_sName': '钱国', 'source_4_sex': '男', 'source_3_Name': '钱国', 'source_4_class': 'MA', 'source_3_Id': '95016', 'source_4_sId': '95016'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_df_starjoin_基本测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>2ee1258d-d3bd-46c2-ac00-210c67f7f871</t>
   </si>
   <si>
     <t>36adba18-7704-43b6-853a-62362f6950b7</t>
   </si>
   <si>
-    <t>[{'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '李dan', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '28', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '王君', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95015', 'Name': '李勇'}, {'country': 'China', 'sName': '钱国', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '21', 'sId': '95016', 'Name': '李勇'}, {'country': 'China', 'sName': '赵钱', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '21', 'sId': '95020', 'Name': '李勇'}, {'country': 'China', 'sName': '周二', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '17', 'sId': '95021', 'Name': '李勇'}, {'country': 'China', 'sName': '郑明', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '20', 'sId': '95022', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '李勇', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '20', 'sId': '95001', 'Name': '李勇'}, {'country': 'China', 'sName': '张立', 'sex': '男', 'Id': '95001', 'class': 'IS', 'age': '19', 'sId': '95004', 'Name': '李勇'}, {'country': 'China', 'sName': '刘刚', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95005', 'Name': '李勇'}, {'country': 'China', 'sName': '孙庆', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '23', 'sId': '95006', 'Name': '李勇'}, {'country': 'China', 'sName': '孔小涛', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '19', 'sId': '95010', 'Name': '李勇'}, {'country': 'China', 'sName': '包小柏', 'sex': '男', 'Id': '95001', 'class': 'MA', 'age': '18', 'sId': '95011', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}, {'country': 'China', 'sName': '冯伟', 'sex': '男', 'Id': '95001', 'class': 'CS', 'age': '21', 'sId': '95013', 'Name': '李勇'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: tc_df_productjoin_基本测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>a1fa99bf-0145-4f15-8078-186ff263bc6e</t>
   </si>
   <si>
@@ -1423,22 +1330,12 @@
     <t>ba7c2ae1-d51b-46f3-8f64-301c1fb71bd8</t>
   </si>
   <si>
-    <t>[{'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}]</t>
-  </si>
-  <si>
     <t>411e2686-9089-4f81-a0cb-85e1e394a0f8</t>
   </si>
   <si>
     <t>34527417-b03f-4fab-b08c-5b52f171ac75</t>
   </si>
   <si>
-    <t>[{'sName': '包小柏', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '孔小涛', 'sex': '男', 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '李勇', 'sex': '男', 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '刘刚', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '郑明', 'sex': '男', 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '钱国', 'sex': '男', 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '周二', 'sex': '男', 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '李dan', 'sex': '男', 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '赵钱', 'sex': '男', 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '王君', 'sex': '男', 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '张立', 'sex': '男', 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '孙庆', 'sex': '男', 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '冯伟', 'sex': '男', 'class': 'CS', 'age': '21', 'sId': '95013'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: intersect_自动化基础测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>9ba50d38-dd41-41ba-bd13-a99b25875d3d</t>
   </si>
   <si>
@@ -1451,32 +1348,18 @@
     <t>e7df08b3-4875-47a5-8312-209c06e26665</t>
   </si>
   <si>
-    <t xml:space="preserve">flowname: decision_自动化基础测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>74cbeba7-bf67-4b93-807c-260e50453ba6</t>
   </si>
   <si>
     <t>b5f288a5-0306-4c1a-a219-fbc26724f09f</t>
   </si>
   <si>
-    <t>[{'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '王小丽', 'sex': '女', 'class': 'CS', 'age': '19', 'sId': '95014'}, {'sName': '王风娟', 'sex': '女', 'class': 'IS', 'age': '18', 'sId': '95017'}, {'sName': '王一', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95018'}, {'sName': '邢小丽', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95019'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}, {'sName': '刘晨', 'sex': '女', 'class': 'IS', 'age': '19', 'sId': '95002'}, {'sName': '王敏', 'sex': '女', 'class': 'MA', 'age': '22', 'sId': '95003'}, {'sName': '易思玲', 'sex': '女', 'class': 'MA', 'age': '19', 'sId': '95007'}, {'sName': '李娜', 'sex': '女', 'class': 'CS', 'age': '18', 'sId': '95008'}, {'sName': '梦圆圆', 'sex': '女', 'class': 'MA', 'age': '18', 'sId': '95009'}, {'sName': '孙花', 'sex': '女', 'class': 'CS', 'age': '20', 'sId': '95012'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flowname: validate_自动化基础测试 ---&gt;预期结果实际结果不一致 
-</t>
-  </si>
-  <si>
     <t>c6bc91c3-86ab-4698-9839-81248d37a886</t>
   </si>
   <si>
     <t>6bd7eb27-e7cc-4c12-8d72-b468e56f5a1a</t>
   </si>
   <si>
-    <t>[{'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '李dan', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '28', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '王君', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95015'}, {'sName': '钱国', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '21', 'sId': '95016'}, {'sName': '赵钱', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '21', 'sId': '95020'}, {'sName': '周二', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '17', 'sId': '95021'}, {'sName': '郑明', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '20', 'sId': '95022'}, {'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '李勇', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '20', 'sId': '95001'}, {'sName': '张立', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'IS', 'age': '19', 'sId': '95004'}, {'sName': '刘刚', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95005'}, {'sName': '孙庆', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '23', 'sId': '95006'}, {'sName': '孔小涛', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '19', 'sId': '95010'}, {'sName': '包小柏', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'MA', 'age': '18', 'sId': '95011'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}, {'sName': '冯伟', 'sex': '男', 'errorInfo': "[sex='女']", 'class': 'CS', 'age': '21', 'sId': '95013'}]</t>
-  </si>
-  <si>
     <t>f77581c7-a467-4c0f-87d5-064e3494837a</t>
   </si>
   <si>
@@ -1537,45 +1420,24 @@
     <t>db2fbfc3-ee83-421b-8470-0c9004392c78</t>
   </si>
   <si>
-    <t>[{'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
-  </si>
-  <si>
     <t>310ad26d-d686-483e-9457-385d290a5946</t>
   </si>
   <si>
-    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '459.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': '', 'AGE': '459.0'}, {'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
-  </si>
-  <si>
     <t>7e6db9e2-40f7-4c8d-b55a-4019787f9697</t>
   </si>
   <si>
-    <t>[{'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}]</t>
-  </si>
-  <si>
     <t>b1ad69ca-3c3a-47b1-9d29-e1848d3af472</t>
   </si>
   <si>
-    <t>[{'SALARY': '1000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2170.0'}]</t>
-  </si>
-  <si>
     <t>b8d4415a-f348-47b6-9ea2-120b0fab1c63</t>
   </si>
   <si>
-    <t>[{'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '1000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2170.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}]</t>
-  </si>
-  <si>
     <t>743ec08f-fb3f-44e9-aaff-fa4eee3a8e93</t>
   </si>
   <si>
-    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '459.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': '', 'AGE': '459.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
-  </si>
-  <si>
     <t>ec142b2f-f75a-405e-9485-b0f7d9aa98d3</t>
   </si>
   <si>
-    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '1169.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2169.0'}, {'SALARY': '1000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2170.0'}, {'SALARY': '2171.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2171.0'}, {'SALARY': '2000.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2172.0'}, {'SALARY': '2173.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2173.0'}, {'SALARY': '2174.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2174.0'}, {'SALARY': '2175.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2175.0'}, {'SALARY': '3176.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '2176.0'}]</t>
-  </si>
-  <si>
     <t>d298d660-b47a-4d79-8118-d43a0614b23</t>
   </si>
   <si>
@@ -1585,13 +1447,28 @@
     <t>[{"SALARY":"458.0","GENDER":"GENDER","TIME":"","JOB":"job","NAME":"name5","AGE":"458.0"},{"SALARY":"459.0","GENDER":"GENDER","TIME":"","JOB":"job","NAME":"","AGE":"459.0"}]</t>
   </si>
   <si>
-    <t>[{'SALARY': '458.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': 'name5', 'AGE': '458.0'}, {'SALARY': '459.0', 'GENDER': 'GENDER', 'TIME': '', 'JOB': 'job', 'NAME': '', 'AGE': '459.0'}]</t>
-  </si>
-  <si>
     <t>0c00515c-76d1-4d5f-a110-e950f354d708</t>
   </si>
   <si>
     <t>e431bdb0-36bf-488f-8559-5da954562db1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="0"/>
+      </rPr>
+      <t>sink_multioutput_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>自动化基础测试</t>
+    </r>
   </si>
   <si>
     <t>b2ed1eca-f5fe-4309-ba86-bc53c5dfb183</t>
@@ -1602,220 +1479,220 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Consolas"/>
       <charset val="0"/>
-      <color rgb="FF222222"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FF212121"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
       <name val="Consolas"/>
       <charset val="0"/>
-      <color rgb="FF212121"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="36">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1840,97 +1717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +1735,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,13 +1849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,49 +1867,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2043,15 +1920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2063,6 +1931,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2082,13 +1961,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2116,242 +2008,232 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="164">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="22" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="165">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="166">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="167">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="17" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="16" fontId="27" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="16" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="31" fontId="26" numFmtId="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="25" numFmtId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="22" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="35" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2611,30 +2493,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A5" sqref="$A1:$XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="10" width="18.1428571428571"/>
-    <col customWidth="1" max="3" min="3" style="10" width="40.5714285714286"/>
-    <col customWidth="1" max="4" min="4" style="10" width="37.2857142857143"/>
-    <col customWidth="1" max="5" min="5" style="10" width="21.2857142857143"/>
-    <col customWidth="1" max="6" min="6" style="10" width="17.5714285714286"/>
-    <col customWidth="1" max="7" min="7" style="10" width="55"/>
-    <col customWidth="1" max="8" min="8" style="10" width="42.7142857142857"/>
-    <col customWidth="1" max="12" min="12" style="10" width="26.5714285714286"/>
+    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="40.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="37.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="21.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="55" customWidth="1"/>
+    <col min="8" max="8" width="42.7142857142857" customWidth="1"/>
+    <col min="12" max="12" width="26.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="10" spans="1:13">
+    <row r="1" ht="16.5" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2676,7 +2555,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2709,12 +2588,12 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2747,12 +2626,12 @@
       <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2785,12 +2664,12 @@
       <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2823,12 +2702,12 @@
       <c r="L5" t="s">
         <v>41</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -2855,12 +2734,12 @@
       <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -2887,12 +2766,12 @@
       <c r="L7" t="s">
         <v>41</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -2919,12 +2798,12 @@
       <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2957,12 +2836,12 @@
       <c r="L9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2995,12 +2874,12 @@
       <c r="L10" t="s">
         <v>58</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -3033,12 +2912,12 @@
       <c r="L11" t="s">
         <v>58</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
@@ -3065,12 +2944,12 @@
       <c r="L12" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -3103,12 +2982,12 @@
       <c r="L13" t="s">
         <v>70</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -3141,12 +3020,12 @@
       <c r="L14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -3179,12 +3058,12 @@
       <c r="L15" t="s">
         <v>75</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -3217,12 +3096,12 @@
       <c r="L16" t="s">
         <v>87</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -3255,12 +3134,12 @@
       <c r="L17" t="s">
         <v>94</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -3293,12 +3172,12 @@
       <c r="L18" t="s">
         <v>101</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -3331,12 +3210,12 @@
       <c r="L19" t="s">
         <v>108</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -3369,12 +3248,12 @@
       <c r="L20" t="s">
         <v>115</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
@@ -3401,12 +3280,12 @@
       <c r="L21" t="s">
         <v>115</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
@@ -3433,12 +3312,12 @@
       <c r="L22" t="s">
         <v>115</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
@@ -3465,12 +3344,12 @@
       <c r="L23" t="s">
         <v>115</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -3503,12 +3382,12 @@
       <c r="L24" t="s">
         <v>129</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -3541,12 +3420,12 @@
       <c r="L25" t="s">
         <v>134</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
@@ -3573,12 +3452,12 @@
       <c r="L26" t="s">
         <v>134</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -3611,12 +3490,12 @@
       <c r="L27" t="s">
         <v>142</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -3643,12 +3522,12 @@
       <c r="L28" t="s">
         <v>142</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -3681,12 +3560,12 @@
       <c r="L29" t="s">
         <v>152</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3722,12 +3601,12 @@
       <c r="L30" t="s">
         <v>161</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3760,12 +3639,12 @@
       <c r="L31" t="s">
         <v>166</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3798,12 +3677,12 @@
       <c r="L32" t="s">
         <v>174</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
@@ -3830,12 +3709,12 @@
       <c r="L33" t="s">
         <v>174</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
@@ -3862,12 +3741,12 @@
       <c r="L34" t="s">
         <v>174</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
@@ -3894,12 +3773,12 @@
       <c r="L35" t="s">
         <v>174</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
@@ -3926,12 +3805,12 @@
       <c r="L36" t="s">
         <v>174</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
@@ -3958,12 +3837,12 @@
       <c r="L37" t="s">
         <v>174</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -3999,12 +3878,12 @@
       <c r="L38" t="s">
         <v>189</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
@@ -4034,12 +3913,12 @@
       <c r="L39" t="s">
         <v>189</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
@@ -4066,12 +3945,12 @@
       <c r="L40" t="s">
         <v>189</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -4104,12 +3983,12 @@
       <c r="L41" t="s">
         <v>201</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
@@ -4136,12 +4015,12 @@
       <c r="L42" t="s">
         <v>201</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
@@ -4168,12 +4047,12 @@
       <c r="L43" t="s">
         <v>201</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
@@ -4200,12 +4079,12 @@
       <c r="L44" t="s">
         <v>201</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -4239,8 +4118,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="n">
+    <row r="46" spans="1:12">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -4268,8 +4147,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="n">
+    <row r="47" spans="1:12">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -4303,8 +4182,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -4332,8 +4211,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" t="n">
+    <row r="49" spans="1:12">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -4367,8 +4246,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -4396,8 +4275,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="n">
+    <row r="51" spans="1:12">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -4425,8 +4304,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -4454,8 +4333,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="n">
+    <row r="53" spans="1:12">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -4483,8 +4362,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="n">
+    <row r="54" spans="1:12">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -4512,8 +4391,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -4541,8 +4420,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="n">
+    <row r="56" spans="1:12">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -4570,8 +4449,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="n">
+    <row r="57" spans="1:12">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -4600,7 +4479,7 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>20</v>
       </c>
       <c r="B58" t="s">
@@ -4633,12 +4512,12 @@
       <c r="L58" t="s">
         <v>254</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>21</v>
       </c>
       <c r="B59" t="s">
@@ -4671,12 +4550,12 @@
       <c r="L59" t="s">
         <v>254</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>22</v>
       </c>
       <c r="B60" t="s">
@@ -4709,12 +4588,12 @@
       <c r="L60" t="s">
         <v>254</v>
       </c>
-      <c r="M60" t="n">
+      <c r="M60">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>23</v>
       </c>
       <c r="B61" t="s">
@@ -4747,12 +4626,12 @@
       <c r="L61" t="s">
         <v>254</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>24</v>
       </c>
       <c r="B62" t="s">
@@ -4785,12 +4664,12 @@
       <c r="L62" t="s">
         <v>254</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>25</v>
       </c>
       <c r="B63" t="s">
@@ -4823,12 +4702,12 @@
       <c r="L63" t="s">
         <v>254</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>26</v>
       </c>
       <c r="B64" t="s">
@@ -4861,12 +4740,12 @@
       <c r="L64" t="s">
         <v>254</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>27</v>
       </c>
       <c r="B65" t="s">
@@ -4899,34 +4778,32 @@
       <c r="L65" t="s">
         <v>254</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="10" width="33"/>
-    <col customWidth="1" max="3" min="3" style="10" width="43.4285714285714"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="43.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="10" spans="1:13">
+    <row r="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4968,7 +4845,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -5001,12 +4878,12 @@
       <c r="L2" t="s">
         <v>258</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5039,12 +4916,12 @@
       <c r="L3" t="s">
         <v>261</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -5077,12 +4954,12 @@
       <c r="L4" t="s">
         <v>264</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="n">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -5115,12 +4992,12 @@
       <c r="L5" t="s">
         <v>267</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="n">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -5156,12 +5033,12 @@
       <c r="L6" t="s">
         <v>271</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="n">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -5188,12 +5065,12 @@
       <c r="L7" t="s">
         <v>271</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="n">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -5226,12 +5103,12 @@
       <c r="L8" t="s">
         <v>278</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="n">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -5264,12 +5141,12 @@
       <c r="L9" t="s">
         <v>281</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" t="n">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -5302,12 +5179,12 @@
       <c r="L10" t="s">
         <v>285</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" t="n">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -5340,12 +5217,12 @@
       <c r="L11" t="s">
         <v>289</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" t="n">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5378,12 +5255,12 @@
       <c r="L12" t="s">
         <v>293</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" t="n">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -5416,12 +5293,12 @@
       <c r="L13" t="s">
         <v>297</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" t="n">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -5454,12 +5331,12 @@
       <c r="L14" t="s">
         <v>301</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="n">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -5492,12 +5369,12 @@
       <c r="L15" t="s">
         <v>305</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" t="n">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -5521,12 +5398,12 @@
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" t="n">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -5544,12 +5421,12 @@
       <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5567,12 +5444,12 @@
       <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5590,12 +5467,12 @@
       <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -5619,12 +5496,12 @@
       <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -5648,12 +5525,12 @@
       <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -5671,12 +5548,12 @@
       <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -5700,12 +5577,12 @@
       <c r="K23" t="s">
         <v>21</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -5723,12 +5600,12 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -5752,12 +5629,12 @@
       <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5781,12 +5658,12 @@
       <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -5810,12 +5687,12 @@
       <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5839,12 +5716,12 @@
       <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -5862,12 +5739,12 @@
       <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -5885,12 +5762,12 @@
       <c r="K30" t="s">
         <v>21</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -5908,12 +5785,12 @@
       <c r="K31" t="s">
         <v>21</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -5931,12 +5808,12 @@
       <c r="K32" t="s">
         <v>21</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5954,12 +5831,12 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -5983,12 +5860,12 @@
       <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -6006,12 +5883,12 @@
       <c r="K35" t="s">
         <v>21</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -6029,12 +5906,12 @@
       <c r="K36" t="s">
         <v>21</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -6058,12 +5935,12 @@
       <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -6081,12 +5958,12 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -6104,12 +5981,12 @@
       <c r="K39" t="s">
         <v>21</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -6127,12 +6004,12 @@
       <c r="K40" t="s">
         <v>21</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
@@ -6156,12 +6033,12 @@
       <c r="K41" t="s">
         <v>21</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -6179,12 +6056,12 @@
       <c r="K42" t="s">
         <v>21</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
@@ -6208,12 +6085,12 @@
       <c r="K43" t="s">
         <v>21</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -6231,12 +6108,12 @@
       <c r="K44" t="s">
         <v>21</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -6260,12 +6137,12 @@
       <c r="K45" t="s">
         <v>21</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -6283,12 +6160,12 @@
       <c r="K46" t="s">
         <v>21</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -6306,12 +6183,12 @@
       <c r="K47" t="s">
         <v>21</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -6329,12 +6206,12 @@
       <c r="K48" t="s">
         <v>21</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -6352,12 +6229,12 @@
       <c r="K49" t="s">
         <v>21</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -6375,12 +6252,12 @@
       <c r="K50" t="s">
         <v>21</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="D51" s="14" t="s">
@@ -6398,12 +6275,12 @@
       <c r="K51" t="s">
         <v>21</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6421,12 +6298,12 @@
       <c r="K52" t="s">
         <v>21</v>
       </c>
-      <c r="M52" t="n">
+      <c r="M52">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6444,36 +6321,37 @@
       <c r="K53" t="s">
         <v>21</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.142857142857141" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="10" width="39.7142857142857"/>
-    <col customWidth="1" max="3" min="3" style="10" width="36.1428571428571"/>
-    <col customWidth="1" max="4" min="4" style="10" width="37"/>
-    <col customWidth="1" max="12" min="12" style="10" width="95.1428571428571"/>
+    <col min="2" max="2" width="39.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="36.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="16.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="255.714285714286" customWidth="1"/>
+    <col min="12" max="12" width="95.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="10" spans="1:13">
+    <row r="1" ht="16.5" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6515,7 +6393,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="n">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -6527,2091 +6405,1142 @@
       <c r="D2" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" t="s">
-        <v>391</v>
-      </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="n">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s"/>
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>392</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="n">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" t="s">
-        <v>171</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" t="s">
-        <v>398</v>
-      </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>399</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="E5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J5" t="s">
-        <v>403</v>
-      </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
-        <v>404</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+        <v>395</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" t="s">
-        <v>406</v>
-      </c>
-      <c r="L6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7">
       <c r="D7" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="E7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>390</v>
-      </c>
-      <c r="I7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="8" spans="4:7">
       <c r="D8" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
+        <v>397</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>390</v>
-      </c>
-      <c r="I8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="M8" t="n">
+      <c r="G12" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>404</v>
-      </c>
-      <c r="M9" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E10" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>413</v>
-      </c>
-      <c r="I10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J10" t="s">
-        <v>414</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" t="s">
-        <v>404</v>
-      </c>
-      <c r="M10" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="H11" t="s">
-        <v>418</v>
-      </c>
-      <c r="I11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" t="s">
-        <v>270</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>404</v>
-      </c>
-      <c r="M11" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" t="s">
-        <v>421</v>
-      </c>
-      <c r="I12" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>404</v>
-      </c>
-      <c r="M12" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>424</v>
-      </c>
-      <c r="I13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" t="s">
-        <v>425</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" t="s">
-        <v>404</v>
-      </c>
-      <c r="M13" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" t="s">
-        <v>402</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" t="s">
-        <v>428</v>
-      </c>
-      <c r="I14" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" t="s">
-        <v>429</v>
-      </c>
       <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="L14" t="s">
-        <v>404</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" t="n">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E15" t="s">
-        <v>402</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D16" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="H15" t="s">
-        <v>432</v>
-      </c>
-      <c r="I15" t="s">
-        <v>159</v>
-      </c>
-      <c r="J15" t="s">
-        <v>433</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>404</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="n">
+    <row r="17" spans="1:13">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" t="s">
-        <v>436</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="D17" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G17" t="s">
         <v>85</v>
       </c>
-      <c r="H16" t="s">
-        <v>437</v>
-      </c>
-      <c r="I16" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" t="s">
-        <v>438</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>439</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="n">
+    <row r="18" spans="1:13">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E17" t="s">
-        <v>436</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="D18" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G18" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s">
-        <v>442</v>
-      </c>
-      <c r="I17" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" t="s">
-        <v>443</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>439</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="E18" t="s">
-        <v>436</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="D19" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" t="s">
         <v>99</v>
       </c>
-      <c r="H18" t="s">
-        <v>446</v>
-      </c>
-      <c r="I18" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" t="s">
-        <v>447</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>439</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="n">
+    <row r="20" spans="1:13">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="E19" t="s">
-        <v>436</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="D20" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" t="s">
         <v>106</v>
       </c>
-      <c r="H19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" t="s">
-        <v>439</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="n">
+    <row r="21" spans="1:13">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C21" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E20" t="s">
-        <v>436</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" t="s">
-        <v>233</v>
-      </c>
-      <c r="K20" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" t="s">
-        <v>439</v>
-      </c>
-      <c r="M20" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="E21" t="s">
-        <v>436</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
+        <v>423</v>
       </c>
       <c r="G21" t="s">
         <v>113</v>
       </c>
-      <c r="I21" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" t="s">
-        <v>233</v>
-      </c>
       <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="L21" t="s">
-        <v>439</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22">
+        <v>20</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="E22" t="s">
-        <v>436</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G23" t="s">
         <v>118</v>
       </c>
-      <c r="I22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J22" t="s">
-        <v>233</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" t="s">
-        <v>439</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="n">
+    <row r="24" spans="1:13">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="E23" t="s">
-        <v>436</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="D24" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G24" t="s">
         <v>121</v>
       </c>
-      <c r="I23" t="s">
-        <v>159</v>
-      </c>
-      <c r="J23" t="s">
-        <v>233</v>
-      </c>
-      <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" t="s">
-        <v>439</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="n">
+    <row r="25" spans="1:13">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B25" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E24" t="s">
-        <v>436</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s"/>
-      <c r="K24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" t="s">
-        <v>439</v>
-      </c>
-      <c r="M24" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
       <c r="D25" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E25" t="s">
-        <v>436</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
+        <v>428</v>
       </c>
       <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s"/>
       <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="M25" t="n">
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E26" t="s">
-        <v>436</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>413</v>
-      </c>
-      <c r="I26" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" t="s">
-        <v>439</v>
-      </c>
-      <c r="M26" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E27" t="s">
-        <v>436</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s"/>
-      <c r="K27" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" t="s">
-        <v>439</v>
-      </c>
-      <c r="M27" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E28" t="s">
-        <v>436</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
-        <v>463</v>
-      </c>
-      <c r="I28" t="s">
-        <v>159</v>
-      </c>
-      <c r="J28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" t="s">
-        <v>439</v>
-      </c>
-      <c r="M28" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E29" t="s">
-        <v>436</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" t="s">
-        <v>466</v>
-      </c>
-      <c r="I29" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" t="s">
-        <v>467</v>
-      </c>
-      <c r="K29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" t="s">
-        <v>439</v>
-      </c>
-      <c r="M29" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E30" t="s">
-        <v>436</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" t="s">
-        <v>439</v>
-      </c>
-      <c r="M30" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E31" t="s">
-        <v>436</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>390</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" t="s">
-        <v>472</v>
-      </c>
-      <c r="K31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" t="s">
-        <v>439</v>
-      </c>
-      <c r="M31" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="n">
+    <row r="33" spans="1:13">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E32" t="s">
-        <v>436</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" t="s">
-        <v>475</v>
-      </c>
-      <c r="I32" t="s">
-        <v>159</v>
-      </c>
-      <c r="J32" t="s">
-        <v>476</v>
-      </c>
-      <c r="K32" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" t="s">
-        <v>439</v>
-      </c>
-      <c r="M32" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E33" t="s">
-        <v>436</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
+        <v>442</v>
       </c>
       <c r="G33" t="s">
         <v>172</v>
       </c>
-      <c r="H33" t="s">
-        <v>475</v>
-      </c>
-      <c r="I33" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" t="s">
-        <v>193</v>
-      </c>
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="L33" t="s">
-        <v>439</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" t="n">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="E34" t="s">
-        <v>436</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D35" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="G35" t="s">
         <v>181</v>
       </c>
-      <c r="H34" t="s">
-        <v>479</v>
-      </c>
-      <c r="I34" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" t="s">
-        <v>193</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" t="s">
-        <v>439</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35">
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" t="n">
+    <row r="36" spans="1:13">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="E35" t="s">
-        <v>436</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="D36" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="G36" t="s">
         <v>56</v>
       </c>
-      <c r="H35" t="s">
-        <v>413</v>
-      </c>
-      <c r="I35" t="s">
-        <v>159</v>
-      </c>
-      <c r="J35" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" t="s">
-        <v>439</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" t="n">
+    <row r="37" spans="1:13">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="E36" t="s">
-        <v>436</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" t="s">
-        <v>475</v>
-      </c>
-      <c r="I36" t="s">
-        <v>159</v>
-      </c>
-      <c r="J36" t="s">
-        <v>193</v>
-      </c>
-      <c r="K36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" t="s">
-        <v>439</v>
-      </c>
-      <c r="M36" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
       <c r="D37" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="E37" t="s">
-        <v>436</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
+        <v>446</v>
       </c>
       <c r="G37" t="s">
         <v>172</v>
       </c>
-      <c r="H37" t="s">
-        <v>475</v>
-      </c>
-      <c r="I37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" t="s">
-        <v>193</v>
-      </c>
       <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="L37" t="s">
-        <v>439</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" t="n">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E38" t="s">
-        <v>436</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="D39" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="G39" t="s">
         <v>186</v>
       </c>
-      <c r="I38" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" t="s">
-        <v>439</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="n">
+    <row r="40" spans="1:13">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E39" t="s">
-        <v>436</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="D40" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G40" t="s">
         <v>191</v>
       </c>
-      <c r="I39" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" t="s">
-        <v>233</v>
-      </c>
-      <c r="K39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" t="s">
-        <v>439</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="n">
+    <row r="41" spans="1:13">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E40" t="s">
-        <v>436</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D41" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="G41" t="s">
         <v>195</v>
       </c>
-      <c r="I40" t="s">
-        <v>159</v>
-      </c>
-      <c r="J40" t="s">
-        <v>233</v>
-      </c>
-      <c r="K40" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" t="s">
-        <v>439</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
-      <c r="A41" t="n">
+    <row r="42" spans="1:13">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E41" t="s">
-        <v>436</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="D42" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G42" t="s">
         <v>203</v>
       </c>
-      <c r="I41" t="s">
-        <v>159</v>
-      </c>
-      <c r="J41" t="s">
-        <v>233</v>
-      </c>
-      <c r="K41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" t="s">
-        <v>439</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
-      <c r="A42" t="n">
+    <row r="43" spans="1:13">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="E42" t="s">
-        <v>436</v>
-      </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="D43" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G43" t="s">
         <v>113</v>
       </c>
-      <c r="I42" t="s">
-        <v>159</v>
-      </c>
-      <c r="J42" t="s">
-        <v>233</v>
-      </c>
-      <c r="K42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" t="s">
-        <v>439</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" t="n">
+    <row r="44" spans="1:13">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E43" t="s">
-        <v>436</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="D44" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G44" t="s">
         <v>206</v>
       </c>
-      <c r="I43" t="s">
-        <v>159</v>
-      </c>
-      <c r="J43" t="s">
-        <v>233</v>
-      </c>
-      <c r="K43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" t="s">
-        <v>439</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="A44" t="n">
+    <row r="45" spans="1:13">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E44" t="s">
-        <v>436</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="D45" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G45" t="s">
         <v>209</v>
       </c>
-      <c r="I44" t="s">
-        <v>159</v>
-      </c>
-      <c r="J44" t="s">
-        <v>233</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" t="s">
-        <v>439</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="A45" t="n">
+    <row r="46" spans="1:13">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E45" t="s">
-        <v>436</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="D46" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G46" t="s">
         <v>215</v>
       </c>
-      <c r="I45" t="s">
-        <v>159</v>
-      </c>
-      <c r="J45" t="s">
-        <v>233</v>
-      </c>
-      <c r="K45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" t="s">
-        <v>439</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="n">
+    <row r="47" spans="1:13">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="E46" t="s">
-        <v>436</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="D47" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G47" t="s">
         <v>219</v>
       </c>
-      <c r="I46" t="s">
-        <v>159</v>
-      </c>
-      <c r="J46" t="s">
-        <v>233</v>
-      </c>
-      <c r="K46" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" t="s">
-        <v>439</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" t="n">
+    <row r="48" spans="1:13">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E47" t="s">
-        <v>436</v>
-      </c>
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>225</v>
-      </c>
-      <c r="I47" t="s">
-        <v>159</v>
-      </c>
-      <c r="J47" t="s">
-        <v>233</v>
-      </c>
-      <c r="K47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" t="s">
-        <v>439</v>
-      </c>
-      <c r="M47" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E48" t="s">
-        <v>436</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
+        <v>461</v>
       </c>
       <c r="G48" t="s">
         <v>225</v>
       </c>
-      <c r="I48" t="s">
-        <v>159</v>
-      </c>
-      <c r="J48" t="s">
-        <v>233</v>
-      </c>
       <c r="K48" t="s">
         <v>21</v>
       </c>
-      <c r="L48" t="s">
-        <v>439</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" t="n">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G49" t="s">
+        <v>225</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C50" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E49" t="s">
-        <v>436</v>
-      </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="D50" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G50" t="s">
         <v>232</v>
       </c>
-      <c r="H49" t="s">
-        <v>500</v>
-      </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s"/>
-      <c r="K49" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" t="s">
-        <v>439</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" t="n">
+    <row r="51" spans="1:13">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E50" t="s">
-        <v>436</v>
-      </c>
-      <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D51" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G51" t="s">
         <v>247</v>
       </c>
-      <c r="H50" t="s">
-        <v>502</v>
-      </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s"/>
-      <c r="K50" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" t="s">
-        <v>439</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="n">
+    <row r="52" spans="1:13">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="E51" t="s">
-        <v>436</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="D52" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G52" t="s">
         <v>243</v>
       </c>
-      <c r="H51" t="s">
-        <v>504</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s"/>
-      <c r="K51" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" t="s">
-        <v>439</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52">
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="n">
+    <row r="53" spans="1:13">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E52" t="s">
-        <v>436</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="D53" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G53" t="s">
         <v>239</v>
       </c>
-      <c r="H52" t="s">
-        <v>506</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" t="s"/>
-      <c r="K52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" t="s">
-        <v>439</v>
-      </c>
-      <c r="M52" t="n">
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="n">
+    <row r="54" spans="1:13">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="E53" t="s">
-        <v>436</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="D54" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="G54" t="s">
         <v>241</v>
       </c>
-      <c r="H53" t="s">
-        <v>508</v>
-      </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" t="s"/>
-      <c r="K53" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" t="s">
-        <v>439</v>
-      </c>
-      <c r="M53" t="n">
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="n">
+    <row r="55" spans="1:13">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="E54" t="s">
-        <v>436</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="D55" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G55" t="s">
         <v>235</v>
       </c>
-      <c r="H54" t="s">
-        <v>510</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s"/>
-      <c r="K54" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" t="s">
-        <v>439</v>
-      </c>
-      <c r="M54" t="n">
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="n">
+    <row r="56" spans="1:13">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="E55" t="s">
-        <v>436</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="D56" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
         <v>237</v>
       </c>
-      <c r="H55" t="s">
-        <v>512</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s"/>
-      <c r="K55" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" t="s">
-        <v>439</v>
-      </c>
-      <c r="M55" t="n">
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56">
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="n">
+    <row r="57" spans="1:13">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E56" t="s">
-        <v>436</v>
-      </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="D57" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="G57" t="s">
         <v>245</v>
       </c>
-      <c r="I56" t="s">
-        <v>159</v>
-      </c>
-      <c r="J56" t="s">
-        <v>233</v>
-      </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" t="s">
-        <v>439</v>
-      </c>
-      <c r="M56" t="n">
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="E57" t="s">
-        <v>436</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>515</v>
-      </c>
-      <c r="H57" t="s">
-        <v>516</v>
-      </c>
-      <c r="I57" t="s">
-        <v>159</v>
-      </c>
-      <c r="J57" t="s">
-        <v>406</v>
-      </c>
-      <c r="L57" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" t="n">
+      <c r="D58" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="E58" t="s">
-        <v>436</v>
-      </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D59" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
         <v>239</v>
       </c>
-      <c r="H58" t="s">
-        <v>506</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s"/>
-      <c r="K58" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" t="s">
-        <v>439</v>
-      </c>
-      <c r="M58" t="n">
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" t="n">
+    <row r="60" spans="1:13">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E59" t="s">
-        <v>436</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="B60" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G60" t="s">
         <v>252</v>
       </c>
-      <c r="I59" t="s">
-        <v>159</v>
-      </c>
-      <c r="J59" t="s">
-        <v>233</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" t="s">
-        <v>439</v>
-      </c>
-      <c r="M59" t="n">
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="14070" activeTab="2"/>
+    <workbookView windowWidth="16455" windowHeight="8430" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info-76" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477">
   <si>
     <t>id</t>
   </si>
@@ -1205,9 +1205,6 @@
   </si>
   <si>
     <t>1b132cde-e0c9-4950-84aa-144164d40cd5</t>
-  </si>
-  <si>
-    <t>5c160935-0df1-4274-9d83-324cecd2df90</t>
   </si>
   <si>
     <t>099df9bf-02bd-4900-a09d-349ce01ad248</t>
@@ -1479,10 +1476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1535,7 +1532,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1550,35 +1598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1592,8 +1612,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1601,14 +1622,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1623,17 +1636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1654,32 +1666,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1717,13 +1714,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1735,13 +1792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,49 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,37 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,13 +1852,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,25 +1882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1935,6 +1932,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1957,30 +1969,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2008,16 +1996,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
@@ -2026,133 +2023,133 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6334,10 +6331,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6463,7 +6460,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>393</v>
@@ -6484,21 +6481,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
-        <v>6</v>
-      </c>
+    <row r="6" spans="4:7">
       <c r="D6" s="5" t="s">
         <v>395</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="4:7">
@@ -6509,23 +6497,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="4:7">
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>397</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -6536,19 +6539,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>46</v>
+        <v>400</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -6559,19 +6562,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>402</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
+        <v>403</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -6582,19 +6585,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -6605,13 +6602,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
       </c>
       <c r="K13" t="s">
         <v>21</v>
@@ -6622,16 +6625,16 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
@@ -6645,19 +6648,19 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -6668,19 +6671,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -6691,19 +6694,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -6714,19 +6717,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -6737,19 +6740,19 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -6760,19 +6763,19 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
@@ -6783,13 +6786,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C21" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>423</v>
@@ -6806,13 +6803,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>424</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -6823,13 +6820,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>425</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -6840,13 +6837,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -6857,16 +6860,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>124</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" t="s">
+        <v>131</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G25" t="s">
         <v>127</v>
@@ -6880,19 +6883,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>430</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -6903,13 +6900,19 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -6920,19 +6923,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -6943,13 +6940,19 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -6960,19 +6963,19 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -6983,19 +6986,19 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -7006,19 +7009,19 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="K32" t="s">
         <v>21</v>
@@ -7029,13 +7032,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="C33" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>442</v>
@@ -7052,13 +7049,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>443</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -7069,13 +7066,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>444</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="K35" t="s">
         <v>21</v>
@@ -7086,13 +7083,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>445</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="K36" t="s">
         <v>21</v>
@@ -7103,7 +7100,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>446</v>
@@ -7120,13 +7117,19 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
@@ -7137,19 +7140,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>449</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
@@ -7160,13 +7157,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>450</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -7177,13 +7174,19 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
@@ -7194,19 +7197,13 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C42" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>453</v>
       </c>
       <c r="G42" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -7217,13 +7214,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>454</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -7234,13 +7231,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>455</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -7251,13 +7248,19 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G45" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -7268,19 +7271,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C46" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>458</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -7291,13 +7288,19 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s">
         <v>21</v>
@@ -7308,13 +7311,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="C48" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>461</v>
@@ -7331,13 +7328,19 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" t="s">
+        <v>230</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G49" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -7348,19 +7351,13 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C50" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>464</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -7371,13 +7368,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>465</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -7388,13 +7385,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>466</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -7405,13 +7402,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>467</v>
       </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -7422,13 +7419,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>468</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
@@ -7439,13 +7436,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -7456,13 +7453,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K56" t="s">
         <v>21</v>
@@ -7471,71 +7468,54 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:7">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>471</v>
       </c>
       <c r="G57" t="s">
-        <v>245</v>
-      </c>
-      <c r="K57" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>239</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58">
         <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G58" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="D59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>474</v>
       </c>
+      <c r="C59" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>476</v>
+      </c>
       <c r="G59" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K59" t="s">
         <v>21</v>
       </c>
       <c r="M59">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="G60" t="s">
-        <v>252</v>
-      </c>
-      <c r="K60" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60">
         <v>83</v>
       </c>
     </row>

--- a/singl_api/api_test_cases/flow_dataset_info.xlsx
+++ b/singl_api/api_test_cases/flow_dataset_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="8430" activeTab="2"/>
+    <workbookView windowWidth="16695" windowHeight="8850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flow_info-76" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475">
   <si>
     <t>id</t>
   </si>
@@ -1217,12 +1217,6 @@
   </si>
   <si>
     <t>d66b53e3-591a-4fbb-bef0-de6a478cf07c</t>
-  </si>
-  <si>
-    <t>449ccf89-666b-488e-9a50-f01113ba63c2</t>
-  </si>
-  <si>
-    <t>e5c447e2-99d0-442c-ab02-556e5b68daba</t>
   </si>
   <si>
     <t>e8335bc8-f28a-4159-b0e5-b2a576a171c0</t>
@@ -1478,8 +1472,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1519,16 +1513,60 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Consolas"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Consolas"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1538,8 +1576,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1560,50 +1629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1612,16 +1637,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1636,8 +1653,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1651,32 +1669,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1714,13 +1708,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,79 +1750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,25 +1774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,13 +1792,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,31 +1864,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1905,15 +1899,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1928,32 +1913,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1982,6 +1941,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1999,157 +1991,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="5">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,13 +2159,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2952,7 +2946,7 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
@@ -3028,7 +3022,7 @@
       <c r="B15" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D15" t="s">
@@ -3066,7 +3060,7 @@
       <c r="B16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D16" t="s">
@@ -3349,10 +3343,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D24" t="s">
@@ -3457,7 +3451,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C27" t="s">
@@ -3568,7 +3562,7 @@
       <c r="B30" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D30" t="s">
@@ -3842,10 +3836,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>183</v>
       </c>
       <c r="D38" t="s">
@@ -5149,7 +5143,7 @@
       <c r="B10" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -5187,7 +5181,7 @@
       <c r="B11" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -5225,7 +5219,7 @@
       <c r="B12" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -5263,7 +5257,7 @@
       <c r="B13" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5301,7 +5295,7 @@
       <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -5339,7 +5333,7 @@
       <c r="B15" t="s">
         <v>302</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -5377,7 +5371,7 @@
       <c r="B16" t="s">
         <v>306</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -5472,10 +5466,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -5504,7 +5498,7 @@
       <c r="B21" t="s">
         <v>317</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -5553,10 +5547,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>137</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5608,7 +5602,7 @@
       <c r="B25" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>147</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5637,7 +5631,7 @@
       <c r="B26" t="s">
         <v>328</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>154</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -5666,7 +5660,7 @@
       <c r="B27" t="s">
         <v>331</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -5695,7 +5689,7 @@
       <c r="B28" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>168</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -5836,10 +5830,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>183</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -5874,7 +5868,7 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="13" t="s">
         <v>191</v>
       </c>
       <c r="K35" t="s">
@@ -5911,10 +5905,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>198</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -6009,10 +6003,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -6061,10 +6055,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>222</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -6116,7 +6110,7 @@
       <c r="B45" t="s">
         <v>369</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>230</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -6266,7 +6260,7 @@
       <c r="F51" t="s">
         <v>171</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>384</v>
       </c>
       <c r="K51" t="s">
@@ -6331,10 +6325,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -6516,19 +6510,19 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>46</v>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>399</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
         <v>21</v>
@@ -6539,19 +6533,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
+      <c r="C10" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
+      <c r="G10" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="K10" t="s">
         <v>21</v>
@@ -6562,13 +6556,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>403</v>
@@ -6585,13 +6573,19 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" s="6" t="s">
         <v>406</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
@@ -6602,13 +6596,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>407</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>408</v>
@@ -6625,19 +6619,19 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>410</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
         <v>21</v>
@@ -6648,19 +6642,19 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>412</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
@@ -6671,19 +6665,19 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>414</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s">
         <v>21</v>
@@ -6694,19 +6688,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>415</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
         <v>21</v>
@@ -6717,19 +6711,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
@@ -6740,19 +6734,19 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>419</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>420</v>
       </c>
       <c r="G19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K19" t="s">
         <v>21</v>
@@ -6763,16 +6757,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="G20" t="s">
         <v>113</v>
@@ -6786,13 +6774,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K21" t="s">
         <v>21</v>
@@ -6803,13 +6791,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -6820,13 +6808,19 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>425</v>
       </c>
       <c r="G23" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
         <v>21</v>
@@ -6837,13 +6831,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>124</v>
+      <c r="C24" t="s">
+        <v>131</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>427</v>
@@ -6860,19 +6854,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
         <v>21</v>
@@ -6883,13 +6871,19 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>430</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
         <v>21</v>
@@ -6900,19 +6894,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -6923,13 +6911,19 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K28" t="s">
         <v>21</v>
@@ -6940,19 +6934,19 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>434</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>435</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s">
         <v>21</v>
@@ -6963,19 +6957,19 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>436</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>437</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
@@ -6986,19 +6980,19 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>438</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>439</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
         <v>21</v>
@@ -7009,16 +7003,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="G32" t="s">
         <v>172</v>
@@ -7032,13 +7020,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
@@ -7049,13 +7037,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -7066,13 +7054,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="K35" t="s">
         <v>21</v>
@@ -7083,10 +7071,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G36" t="s">
         <v>172</v>
@@ -7100,13 +7088,19 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>446</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="K37" t="s">
         <v>21</v>
@@ -7117,19 +7111,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K38" t="s">
         <v>21</v>
@@ -7140,13 +7128,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G39" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K39" t="s">
         <v>21</v>
@@ -7157,13 +7145,19 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40" t="s">
+        <v>198</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>450</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="K40" t="s">
         <v>21</v>
@@ -7174,19 +7168,13 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C41" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>452</v>
-      </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="K41" t="s">
         <v>21</v>
@@ -7197,13 +7185,13 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="K42" t="s">
         <v>21</v>
@@ -7214,13 +7202,13 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G43" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K43" t="s">
         <v>21</v>
@@ -7231,13 +7219,19 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>455</v>
       </c>
       <c r="G44" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K44" t="s">
         <v>21</v>
@@ -7248,19 +7242,13 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K45" t="s">
         <v>21</v>
@@ -7271,13 +7259,19 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" t="s">
+        <v>222</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>458</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K46" t="s">
         <v>21</v>
@@ -7288,16 +7282,10 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>459</v>
-      </c>
-      <c r="C47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>460</v>
       </c>
       <c r="G47" t="s">
         <v>225</v>
@@ -7311,13 +7299,19 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" t="s">
+        <v>230</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>461</v>
       </c>
       <c r="G48" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="K48" t="s">
         <v>21</v>
@@ -7328,19 +7322,13 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C49" t="s">
-        <v>230</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -7351,13 +7339,13 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G50" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K50" t="s">
         <v>21</v>
@@ -7368,13 +7356,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G51" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K51" t="s">
         <v>21</v>
@@ -7385,13 +7373,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -7402,13 +7390,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K53" t="s">
         <v>21</v>
@@ -7419,13 +7407,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G54" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K54" t="s">
         <v>21</v>
@@ -7436,13 +7424,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K55" t="s">
         <v>21</v>
@@ -7451,71 +7439,54 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:7">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
         <v>470</v>
       </c>
-      <c r="G56" t="s">
-        <v>245</v>
-      </c>
-      <c r="K56" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>471</v>
       </c>
       <c r="G57" t="s">
-        <v>472</v>
+        <v>239</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="D58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>473</v>
       </c>
+      <c r="D58" s="3" t="s">
+        <v>474</v>
+      </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K58" t="s">
         <v>21</v>
       </c>
       <c r="M58">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G59" t="s">
-        <v>252</v>
-      </c>
-      <c r="K59" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59">
         <v>83</v>
       </c>
     </row>
